--- a/src/test/resources/testdata/date_info.xlsx
+++ b/src/test/resources/testdata/date_info.xlsx
@@ -7,19 +7,34 @@
     <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
-    <sheet name="date_info" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>date_data_test</t>
+    <t>Description</t>
   </si>
   <si>
-    <t>12/20/2021 12:00:00</t>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>futureDateCreation</t>
+  </si>
+  <si>
+    <t>pastDateCreation</t>
+  </si>
+  <si>
+    <t>expectedDateTest</t>
+  </si>
+  <si>
+    <t>dateTest</t>
+  </si>
+  <si>
+    <t>15/08/2021/ 00:00</t>
   </si>
 </sst>
 </file>
@@ -27,12 +42,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,77 +57,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -123,33 +69,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +138,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,14 +153,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,49 +221,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,25 +347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,85 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,37 +415,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,17 +445,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +468,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,8 +504,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -495,153 +515,165 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,25 +993,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
